--- a/secreq/OWASP_WebApplicationSecurityRequirements.xlsx
+++ b/secreq/OWASP_WebApplicationSecurityRequirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/git/www-chapter-japan/secreq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sen/Dropbox/プロジェクト/セキュリティ要件定義書WG/3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D63CD76-8E46-D947-B303-300BC6A71F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4209B71-BEE3-C44B-97FC-CB3F638BBC91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37760" yWindow="-2200" windowWidth="30420" windowHeight="34740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>レスポンスヘッダーにStrict-Transport-Securityを指定すること</t>
   </si>
   <si>
-    <t>Hypertext Strict Transport Security(HSTS)を指定すると、ブラウザがHTTPSでアクセスするよう強制できます。</t>
-  </si>
-  <si>
     <t>cookie</t>
   </si>
   <si>
@@ -911,6 +908,10 @@
   </si>
   <si>
     <t>要件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP Strict Transport Security(HSTS)を指定すると、ブラウザがHTTPSでアクセスするよう強制できます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1662,7 +1663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13"/>
@@ -1688,7 +1689,7 @@
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>2</v>
@@ -1699,25 +1700,25 @@
     </row>
     <row r="2" spans="1:8" ht="126">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>5</v>
@@ -1729,7 +1730,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>6</v>
@@ -1745,13 +1746,13 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>9</v>
@@ -1761,13 +1762,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
@@ -1785,7 +1786,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
@@ -1799,19 +1800,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="F7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -1823,13 +1824,13 @@
       <c r="C8" s="21"/>
       <c r="D8" s="11"/>
       <c r="E8" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -1841,13 +1842,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="11"/>
       <c r="E9" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>5</v>
@@ -1859,13 +1860,13 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>5</v>
@@ -1877,10 +1878,10 @@
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -1893,13 +1894,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>5</v>
@@ -1911,7 +1912,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>12</v>
@@ -1927,10 +1928,10 @@
       <c r="C14" s="21"/>
       <c r="D14" s="11"/>
       <c r="E14" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="14" t="s">
@@ -1943,13 +1944,13 @@
       <c r="C15" s="21"/>
       <c r="D15" s="11"/>
       <c r="E15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>9</v>
@@ -1961,13 +1962,13 @@
       <c r="C16" s="29"/>
       <c r="D16" s="6"/>
       <c r="E16" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>9</v>
@@ -1977,13 +1978,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -2001,7 +2002,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>18</v>
@@ -2015,19 +2016,19 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>5</v>
@@ -2039,7 +2040,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>20</v>
@@ -2053,13 +2054,13 @@
       <c r="A21" s="1"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>23</v>
@@ -2077,13 +2078,13 @@
       <c r="C22" s="26"/>
       <c r="D22" s="31"/>
       <c r="E22" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>5</v>
@@ -2093,19 +2094,19 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>187</v>
-      </c>
       <c r="F23" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="H23" s="54" t="s">
         <v>9</v>
@@ -2113,25 +2114,25 @@
     </row>
     <row r="24" spans="1:8" ht="90">
       <c r="A24" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>5</v>
@@ -2143,7 +2144,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>27</v>
@@ -2159,19 +2160,19 @@
       <c r="A26" s="1"/>
       <c r="B26" s="11"/>
       <c r="C26" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>5</v>
@@ -2183,10 +2184,10 @@
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
@@ -2199,7 +2200,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>31</v>
@@ -2215,7 +2216,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>32</v>
@@ -2229,19 +2230,19 @@
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
       <c r="C30" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>5</v>
@@ -2249,19 +2250,19 @@
     </row>
     <row r="31" spans="1:8" ht="36">
       <c r="A31" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>202</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>203</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>36</v>
@@ -2279,7 +2280,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="2"/>
       <c r="E32" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>38</v>
@@ -2297,7 +2298,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="2"/>
       <c r="E33" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>40</v>
@@ -2315,7 +2316,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="40"/>
       <c r="E34" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>42</v>
@@ -2331,16 +2332,16 @@
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>209</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
@@ -2351,19 +2352,19 @@
       <c r="A36" s="1"/>
       <c r="B36" s="40"/>
       <c r="C36" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>211</v>
-      </c>
       <c r="F36" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>5</v>
@@ -2371,19 +2372,19 @@
     </row>
     <row r="37" spans="1:8" ht="126">
       <c r="A37" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>46</v>
@@ -2401,7 +2402,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>48</v>
@@ -2417,7 +2418,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>49</v>
@@ -2435,7 +2436,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>51</v>
@@ -2451,7 +2452,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>52</v>
@@ -2469,7 +2470,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>54</v>
@@ -2485,13 +2486,13 @@
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>57</v>
@@ -2507,13 +2508,13 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>60</v>
@@ -2531,7 +2532,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>62</v>
@@ -2547,13 +2548,13 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>65</v>
@@ -2571,7 +2572,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
       <c r="E47" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>67</v>
@@ -2589,7 +2590,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>69</v>
@@ -2607,7 +2608,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
       <c r="E49" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>71</v>
@@ -2621,19 +2622,19 @@
     </row>
     <row r="50" spans="1:8" ht="144">
       <c r="A50" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>75</v>
@@ -2651,7 +2652,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
       <c r="E51" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>77</v>
@@ -2669,7 +2670,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>79</v>
@@ -2687,13 +2688,13 @@
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>5</v>
@@ -2701,25 +2702,25 @@
     </row>
     <row r="54" spans="1:8" ht="72">
       <c r="A54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="D54" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="E54" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="F54" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="20" t="s">
+      <c r="G54" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>5</v>
@@ -2731,13 +2732,13 @@
       <c r="C55" s="43"/>
       <c r="D55" s="11"/>
       <c r="E55" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F55" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>5</v>
@@ -2749,13 +2750,13 @@
       <c r="C56" s="44"/>
       <c r="D56" s="45"/>
       <c r="E56" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>9</v>
@@ -2763,25 +2764,25 @@
     </row>
     <row r="57" spans="1:8" ht="54">
       <c r="A57" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="D57" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="33" t="s">
+      <c r="G57" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>5</v>
@@ -2791,19 +2792,19 @@
       <c r="A58" s="49"/>
       <c r="B58" s="11"/>
       <c r="C58" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="E58" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="32" t="s">
-        <v>247</v>
-      </c>
       <c r="F58" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>5</v>
@@ -2813,19 +2814,19 @@
       <c r="A59" s="49"/>
       <c r="B59" s="11"/>
       <c r="C59" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="E59" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="32" t="s">
-        <v>250</v>
-      </c>
       <c r="F59" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>5</v>
@@ -2835,19 +2836,19 @@
       <c r="A60" s="50"/>
       <c r="B60" s="11"/>
       <c r="C60" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="E60" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>253</v>
-      </c>
       <c r="F60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>5</v>
@@ -2859,10 +2860,10 @@
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8" t="s">
@@ -2873,19 +2874,19 @@
       <c r="A62" s="49"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="F62" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>5</v>
@@ -2895,19 +2896,19 @@
       <c r="A63" s="50"/>
       <c r="B63" s="51"/>
       <c r="C63" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="E63" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="32" t="s">
-        <v>260</v>
-      </c>
       <c r="F63" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>9</v>
@@ -2917,19 +2918,19 @@
       <c r="A64" s="50"/>
       <c r="B64" s="51"/>
       <c r="C64" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="F64" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>5</v>
@@ -2939,19 +2940,19 @@
       <c r="A65" s="50"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="F65" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>5</v>
@@ -2961,19 +2962,19 @@
       <c r="A66" s="50"/>
       <c r="B66" s="11"/>
       <c r="C66" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="F66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>5</v>
@@ -2983,19 +2984,19 @@
       <c r="A67" s="50"/>
       <c r="B67" s="51"/>
       <c r="C67" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="F67" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="G67" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>5</v>
@@ -3005,19 +3006,19 @@
       <c r="A68" s="52"/>
       <c r="B68" s="53"/>
       <c r="C68" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="G68" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>5</v>
@@ -3025,25 +3026,25 @@
     </row>
     <row r="69" spans="1:8" ht="72">
       <c r="A69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="D69" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="E69" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="F69" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="33" t="s">
+      <c r="G69" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>5</v>
@@ -3055,10 +3056,10 @@
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
       <c r="E70" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="8" t="s">
@@ -3071,13 +3072,13 @@
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>5</v>
@@ -3089,13 +3090,13 @@
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
       <c r="E72" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>9</v>
@@ -3107,13 +3108,13 @@
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>9</v>
